--- a/sourceFile.xlsx
+++ b/sourceFile.xlsx
@@ -14,45 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>Фролов Владислав Викторович</t>
   </si>
   <si>
+    <t>Алаев Евгений Федорович</t>
+  </si>
+  <si>
+    <t>Баянов Алексей Анатольевич</t>
+  </si>
+  <si>
+    <t>Долгов Александр Юрьевич</t>
+  </si>
+  <si>
+    <t>Захарова Анна Александровна</t>
+  </si>
+  <si>
+    <t>Козина Наталья Алексеевна</t>
+  </si>
+  <si>
+    <t>Масалова Наталия Юрьевна</t>
+  </si>
+  <si>
+    <t>Закирова Ирина Владимировна</t>
+  </si>
+  <si>
+    <t>Цельмин Евгений Александрович</t>
+  </si>
+  <si>
+    <t>Казакова Наталья Леонидовна</t>
+  </si>
+  <si>
+    <t>Логинов Андрей Александрович</t>
+  </si>
+  <si>
+    <t>Digital</t>
+  </si>
+  <si>
+    <t>Золотов Михаил Владимирович</t>
+  </si>
+  <si>
+    <t>Кашапова Диля Раилевна</t>
+  </si>
+  <si>
+    <t>Князев Кирилл Андреевич</t>
+  </si>
+  <si>
+    <t>Козлов Вячеслав Викторович</t>
+  </si>
+  <si>
+    <t>Макаров Дмитрий Андреевич</t>
+  </si>
+  <si>
+    <t>Никитин Максим Сергеевич</t>
+  </si>
+  <si>
+    <t>Подоплелов Александр Владимирович</t>
+  </si>
+  <si>
+    <t>БЮ Digital</t>
+  </si>
+  <si>
     <t>1C</t>
-  </si>
-  <si>
-    <t>Алаев Евгений Федорович</t>
-  </si>
-  <si>
-    <t>Баянов Алексей Анатольевич</t>
-  </si>
-  <si>
-    <t>Долгов Александр Юрьевич</t>
-  </si>
-  <si>
-    <t>Захарова Анна Александровна</t>
-  </si>
-  <si>
-    <t>Козина Наталья Алексеевна</t>
-  </si>
-  <si>
-    <t>Масалова Наталия Юрьевна</t>
-  </si>
-  <si>
-    <t>Закирова Ирина Владимировна</t>
-  </si>
-  <si>
-    <t>Цельмин Евгений Александрович</t>
-  </si>
-  <si>
-    <t>Казакова Наталья Леонидовна</t>
-  </si>
-  <si>
-    <t>Логинов Андрей Александрович</t>
-  </si>
-  <si>
-    <t>Digital</t>
   </si>
 </sst>
 </file>
@@ -88,9 +112,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -395,149 +424,217 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3">
+        <v>78766</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1">
-        <f ca="1">RANDBETWEEN(10000, 90000)</f>
-        <v>49053</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" s="3">
+        <v>23636</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
-        <f t="shared" ref="C2:C11" ca="1" si="0">RANDBETWEEN(10000, 90000)</f>
-        <v>33950</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" s="3">
+        <v>23829</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>37749</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C4" s="3">
+        <v>85102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>16567</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C5" s="3">
+        <v>72417</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>60140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C6" s="3">
+        <v>34341</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>55260</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C7" s="3">
+        <v>69002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3">
+        <v>72440</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3">
+        <v>43855</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3">
+        <v>49249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="3">
+        <v>87995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="3">
+        <v>17535</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="3">
+        <v>28140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="3">
+        <v>78358</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>14338</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C15" s="3">
+        <v>58096</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="1">
-        <f ca="1">RANDBETWEEN(10000, 90000)</f>
-        <v>10886</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C16" s="3">
+        <v>39837</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>44465</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C17" s="3">
+        <v>38582</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>29412</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>85053</v>
+      <c r="C18" s="3">
+        <v>23606</v>
       </c>
     </row>
   </sheetData>
